--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tnc-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tnc-Egfr.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.442371333333333</v>
+        <v>0.1346003333333333</v>
       </c>
       <c r="H2">
-        <v>4.327114</v>
+        <v>0.403801</v>
       </c>
       <c r="I2">
-        <v>0.03522044016446201</v>
+        <v>0.009651054304565105</v>
       </c>
       <c r="J2">
-        <v>0.03522044016446201</v>
+        <v>0.009651054304565105</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.307106666666667</v>
+        <v>0.428743</v>
       </c>
       <c r="N2">
-        <v>3.92132</v>
+        <v>1.286229</v>
       </c>
       <c r="O2">
-        <v>0.01256263154946851</v>
+        <v>0.00412050394863168</v>
       </c>
       <c r="P2">
-        <v>0.01256263154946851</v>
+        <v>0.00412050394863168</v>
       </c>
       <c r="Q2">
-        <v>1.885333185608889</v>
+        <v>0.05770895071433334</v>
       </c>
       <c r="R2">
-        <v>16.96799867048</v>
+        <v>0.5193805564290001</v>
       </c>
       <c r="S2">
-        <v>0.0004424614127962382</v>
+        <v>3.976720737041929E-05</v>
       </c>
       <c r="T2">
-        <v>0.0004424614127962382</v>
+        <v>3.976720737041929E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.442371333333333</v>
+        <v>0.1346003333333333</v>
       </c>
       <c r="H3">
-        <v>4.327114</v>
+        <v>0.403801</v>
       </c>
       <c r="I3">
-        <v>0.03522044016446201</v>
+        <v>0.009651054304565105</v>
       </c>
       <c r="J3">
-        <v>0.03522044016446201</v>
+        <v>0.009651054304565105</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>80.22623700000001</v>
+        <v>80.22623699999998</v>
       </c>
       <c r="N3">
         <v>240.678711</v>
       </c>
       <c r="O3">
-        <v>0.77105616682495</v>
+        <v>0.7710272268990069</v>
       </c>
       <c r="P3">
-        <v>0.77105616682495</v>
+        <v>0.7710272268990069</v>
       </c>
       <c r="Q3">
-        <v>115.716024430006</v>
+        <v>10.798478242279</v>
       </c>
       <c r="R3">
-        <v>1041.444219870054</v>
+        <v>97.18630418051099</v>
       </c>
       <c r="S3">
-        <v>0.02715693758709759</v>
+        <v>0.007441225637100556</v>
       </c>
       <c r="T3">
-        <v>0.02715693758709759</v>
+        <v>0.007441225637100556</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.442371333333333</v>
+        <v>0.1346003333333333</v>
       </c>
       <c r="H4">
-        <v>4.327114</v>
+        <v>0.403801</v>
       </c>
       <c r="I4">
-        <v>0.03522044016446201</v>
+        <v>0.009651054304565105</v>
       </c>
       <c r="J4">
-        <v>0.03522044016446201</v>
+        <v>0.009651054304565105</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>22.51385866666667</v>
+        <v>23.39612766666667</v>
       </c>
       <c r="N4">
-        <v>67.54157600000001</v>
+        <v>70.188383</v>
       </c>
       <c r="O4">
-        <v>0.2163812016255814</v>
+        <v>0.2248522691523614</v>
       </c>
       <c r="P4">
-        <v>0.2163812016255814</v>
+        <v>0.2248522691523614</v>
       </c>
       <c r="Q4">
-        <v>32.47334434351822</v>
+        <v>3.149126582642556</v>
       </c>
       <c r="R4">
-        <v>292.260099091664</v>
+        <v>28.342139243783</v>
       </c>
       <c r="S4">
-        <v>0.007621041164568181</v>
+        <v>0.002170061460094129</v>
       </c>
       <c r="T4">
-        <v>0.007621041164568181</v>
+        <v>0.002170061460094129</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>33.994191</v>
       </c>
       <c r="I5">
-        <v>0.2766948987373093</v>
+        <v>0.8124788779145131</v>
       </c>
       <c r="J5">
-        <v>0.2766948987373092</v>
+        <v>0.8124788779145132</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.307106666666667</v>
+        <v>0.428743</v>
       </c>
       <c r="N5">
-        <v>3.92132</v>
+        <v>1.286229</v>
       </c>
       <c r="O5">
-        <v>0.01256263154946851</v>
+        <v>0.00412050394863168</v>
       </c>
       <c r="P5">
-        <v>0.01256263154946851</v>
+        <v>0.00412050394863168</v>
       </c>
       <c r="Q5">
-        <v>14.81134456134667</v>
+        <v>4.858257143971001</v>
       </c>
       <c r="R5">
-        <v>133.30210105212</v>
+        <v>43.72431429573901</v>
       </c>
       <c r="S5">
-        <v>0.003476016064454315</v>
+        <v>0.003347822424626588</v>
       </c>
       <c r="T5">
-        <v>0.003476016064454314</v>
+        <v>0.003347822424626589</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>33.994191</v>
       </c>
       <c r="I6">
-        <v>0.2766948987373093</v>
+        <v>0.8124788779145131</v>
       </c>
       <c r="J6">
-        <v>0.2766948987373092</v>
+        <v>0.8124788779145132</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>80.22623700000001</v>
+        <v>80.22623699999998</v>
       </c>
       <c r="N6">
         <v>240.678711</v>
       </c>
       <c r="O6">
-        <v>0.77105616682495</v>
+        <v>0.7710272268990069</v>
       </c>
       <c r="P6">
-        <v>0.77105616682495</v>
+        <v>0.7710272268990069</v>
       </c>
       <c r="Q6">
-        <v>909.0753412630892</v>
+        <v>909.0753412630888</v>
       </c>
       <c r="R6">
-        <v>8181.678071367802</v>
+        <v>8181.6780713678</v>
       </c>
       <c r="S6">
-        <v>0.2133473080004074</v>
+        <v>0.6264433361524439</v>
       </c>
       <c r="T6">
-        <v>0.2133473080004074</v>
+        <v>0.626443336152444</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>33.994191</v>
       </c>
       <c r="I7">
-        <v>0.2766948987373093</v>
+        <v>0.8124788779145131</v>
       </c>
       <c r="J7">
-        <v>0.2766948987373092</v>
+        <v>0.8124788779145132</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>22.51385866666667</v>
+        <v>23.39612766666667</v>
       </c>
       <c r="N7">
-        <v>67.54157600000001</v>
+        <v>70.188383</v>
       </c>
       <c r="O7">
-        <v>0.2163812016255814</v>
+        <v>0.2248522691523614</v>
       </c>
       <c r="P7">
-        <v>0.2163812016255814</v>
+        <v>0.2248522691523614</v>
       </c>
       <c r="Q7">
-        <v>255.1134705538907</v>
+        <v>265.1108108536837</v>
       </c>
       <c r="R7">
-        <v>2296.021234985016</v>
+        <v>2385.997297683153</v>
       </c>
       <c r="S7">
-        <v>0.05987157467244755</v>
+        <v>0.1826877193374427</v>
       </c>
       <c r="T7">
-        <v>0.05987157467244755</v>
+        <v>0.1826877193374427</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>28.17890933333333</v>
+        <v>2.4807</v>
       </c>
       <c r="H8">
-        <v>84.536728</v>
+        <v>7.4421</v>
       </c>
       <c r="I8">
-        <v>0.6880846610982287</v>
+        <v>0.1778700677809217</v>
       </c>
       <c r="J8">
-        <v>0.6880846610982286</v>
+        <v>0.1778700677809217</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.307106666666667</v>
+        <v>0.428743</v>
       </c>
       <c r="N8">
-        <v>3.92132</v>
+        <v>1.286229</v>
       </c>
       <c r="O8">
-        <v>0.01256263154946851</v>
+        <v>0.00412050394863168</v>
       </c>
       <c r="P8">
-        <v>0.01256263154946851</v>
+        <v>0.00412050394863168</v>
       </c>
       <c r="Q8">
-        <v>36.83284024899555</v>
+        <v>1.0635827601</v>
       </c>
       <c r="R8">
-        <v>331.49556224096</v>
+        <v>9.5722448409</v>
       </c>
       <c r="S8">
-        <v>0.008644154072217953</v>
+        <v>0.0007329143166346726</v>
       </c>
       <c r="T8">
-        <v>0.008644154072217951</v>
+        <v>0.0007329143166346726</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>28.17890933333333</v>
+        <v>2.4807</v>
       </c>
       <c r="H9">
-        <v>84.536728</v>
+        <v>7.4421</v>
       </c>
       <c r="I9">
-        <v>0.6880846610982287</v>
+        <v>0.1778700677809217</v>
       </c>
       <c r="J9">
-        <v>0.6880846610982286</v>
+        <v>0.1778700677809217</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,28 +986,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>80.22623700000001</v>
+        <v>80.22623699999998</v>
       </c>
       <c r="N9">
         <v>240.678711</v>
       </c>
       <c r="O9">
-        <v>0.77105616682495</v>
+        <v>0.7710272268990069</v>
       </c>
       <c r="P9">
-        <v>0.77105616682495</v>
+        <v>0.7710272268990069</v>
       </c>
       <c r="Q9">
-        <v>2260.687858577513</v>
+        <v>199.0172261259</v>
       </c>
       <c r="R9">
-        <v>20346.19072719761</v>
+        <v>1791.1550351331</v>
       </c>
       <c r="S9">
-        <v>0.5305519212374451</v>
+        <v>0.1371426651094625</v>
       </c>
       <c r="T9">
-        <v>0.530551921237445</v>
+        <v>0.1371426651094625</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>28.17890933333333</v>
+        <v>2.4807</v>
       </c>
       <c r="H10">
-        <v>84.536728</v>
+        <v>7.4421</v>
       </c>
       <c r="I10">
-        <v>0.6880846610982287</v>
+        <v>0.1778700677809217</v>
       </c>
       <c r="J10">
-        <v>0.6880846610982286</v>
+        <v>0.1778700677809217</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>22.51385866666667</v>
+        <v>23.39612766666667</v>
       </c>
       <c r="N10">
-        <v>67.54157600000001</v>
+        <v>70.188383</v>
       </c>
       <c r="O10">
-        <v>0.2163812016255814</v>
+        <v>0.2248522691523614</v>
       </c>
       <c r="P10">
-        <v>0.2163812016255814</v>
+        <v>0.2248522691523614</v>
       </c>
       <c r="Q10">
-        <v>634.415982111481</v>
+        <v>58.03877390270001</v>
       </c>
       <c r="R10">
-        <v>5709.743839003329</v>
+        <v>522.3489651243</v>
       </c>
       <c r="S10">
-        <v>0.1488885857885657</v>
+        <v>0.03999448835482458</v>
       </c>
       <c r="T10">
-        <v>0.1488885857885657</v>
+        <v>0.03999448835482458</v>
       </c>
     </row>
   </sheetData>
